--- a/MarkSat/bin/Debug/词汇frombook - 例句 - 20190121.xlsx
+++ b/MarkSat/bin/Debug/词汇frombook - 例句 - 20190121.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chent\Desktop\Code\MarkSat\MarkSat\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F4F75E-67BC-4F02-94F6-93DA367750FE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C213B3AA-EE25-4815-A6F9-0CD7853BCA20}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7788" tabRatio="371" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57621,7 +57621,7 @@
     <col min="3" max="3" width="19.88671875" style="2" customWidth="1"/>
     <col min="4" max="4" width="9.5546875" style="2" customWidth="1"/>
     <col min="5" max="5" width="41" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.21875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="38.21875" style="2" customWidth="1"/>
     <col min="7" max="7" width="9" style="2"/>
     <col min="8" max="8" width="39" style="2" customWidth="1"/>
     <col min="9" max="9" width="9" style="2"/>
@@ -59672,7 +59672,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="118" spans="1:9" s="34" customFormat="1" ht="72.599999999999994">
+    <row r="118" spans="1:9" s="34" customFormat="1" ht="43.8">
       <c r="A118" s="7" t="s">
         <v>601</v>
       </c>
@@ -59809,7 +59809,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="126" spans="1:9" s="34" customFormat="1" ht="43.8">
+    <row r="126" spans="1:9" s="34" customFormat="1" ht="29.4">
       <c r="A126" s="7" t="s">
         <v>640</v>
       </c>
@@ -60059,7 +60059,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="140" spans="1:9" s="34" customFormat="1" ht="28.8">
+    <row r="140" spans="1:9" s="34" customFormat="1">
       <c r="A140" s="7" t="s">
         <v>710</v>
       </c>
@@ -60080,7 +60080,7 @@
       <c r="H140" s="44"/>
       <c r="I140" s="44"/>
     </row>
-    <row r="141" spans="1:9" s="34" customFormat="1" ht="28.8">
+    <row r="141" spans="1:9" s="34" customFormat="1">
       <c r="A141" s="7" t="s">
         <v>715</v>
       </c>
@@ -60101,7 +60101,7 @@
       <c r="H141" s="44"/>
       <c r="I141" s="44"/>
     </row>
-    <row r="142" spans="1:9" s="34" customFormat="1" ht="28.8">
+    <row r="142" spans="1:9" s="34" customFormat="1">
       <c r="A142" s="7" t="s">
         <v>720</v>
       </c>
@@ -60122,7 +60122,7 @@
       <c r="H142" s="44"/>
       <c r="I142" s="44"/>
     </row>
-    <row r="143" spans="1:9" s="34" customFormat="1" ht="28.8">
+    <row r="143" spans="1:9" s="34" customFormat="1">
       <c r="A143" s="7" t="s">
         <v>725</v>
       </c>
@@ -60143,7 +60143,7 @@
       <c r="H143" s="44"/>
       <c r="I143" s="44"/>
     </row>
-    <row r="144" spans="1:9" s="34" customFormat="1" ht="28.8">
+    <row r="144" spans="1:9" s="34" customFormat="1">
       <c r="A144" s="7" t="s">
         <v>730</v>
       </c>
@@ -60164,7 +60164,7 @@
       <c r="H144" s="44"/>
       <c r="I144" s="44"/>
     </row>
-    <row r="145" spans="1:9" s="34" customFormat="1" ht="28.8">
+    <row r="145" spans="1:9" s="34" customFormat="1">
       <c r="A145" s="7" t="s">
         <v>735</v>
       </c>
@@ -60185,7 +60185,7 @@
       <c r="H145" s="44"/>
       <c r="I145" s="44"/>
     </row>
-    <row r="146" spans="1:9" s="34" customFormat="1" ht="28.8">
+    <row r="146" spans="1:9" s="34" customFormat="1">
       <c r="A146" s="7" t="s">
         <v>740</v>
       </c>
@@ -60206,7 +60206,7 @@
       <c r="H146" s="44"/>
       <c r="I146" s="44"/>
     </row>
-    <row r="147" spans="1:9" s="34" customFormat="1" ht="28.8">
+    <row r="147" spans="1:9" s="34" customFormat="1">
       <c r="A147" s="7" t="s">
         <v>745</v>
       </c>
@@ -60227,7 +60227,7 @@
       <c r="H147" s="44"/>
       <c r="I147" s="44"/>
     </row>
-    <row r="148" spans="1:9" s="34" customFormat="1" ht="43.8">
+    <row r="148" spans="1:9" s="34" customFormat="1" ht="29.4">
       <c r="A148" s="7" t="s">
         <v>750</v>
       </c>
@@ -60248,7 +60248,7 @@
       <c r="H148" s="44"/>
       <c r="I148" s="44"/>
     </row>
-    <row r="149" spans="1:9" s="34" customFormat="1" ht="43.2">
+    <row r="149" spans="1:9" s="34" customFormat="1" ht="28.8">
       <c r="A149" s="7" t="s">
         <v>755</v>
       </c>
@@ -60286,7 +60286,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="151" spans="1:9" s="34" customFormat="1" ht="28.8">
+    <row r="151" spans="1:9" s="34" customFormat="1">
       <c r="A151" s="7" t="s">
         <v>765</v>
       </c>
@@ -60307,7 +60307,7 @@
       <c r="H151" s="44"/>
       <c r="I151" s="44"/>
     </row>
-    <row r="152" spans="1:9" s="34" customFormat="1" ht="28.8">
+    <row r="152" spans="1:9" s="34" customFormat="1">
       <c r="A152" s="7" t="s">
         <v>770</v>
       </c>
@@ -60328,7 +60328,7 @@
       <c r="H152" s="44"/>
       <c r="I152" s="44"/>
     </row>
-    <row r="153" spans="1:9" s="34" customFormat="1" ht="28.8">
+    <row r="153" spans="1:9" s="34" customFormat="1">
       <c r="A153" s="7" t="s">
         <v>775</v>
       </c>
@@ -60349,7 +60349,7 @@
       <c r="H153" s="44"/>
       <c r="I153" s="44"/>
     </row>
-    <row r="154" spans="1:9" s="34" customFormat="1" ht="43.2">
+    <row r="154" spans="1:9" s="34" customFormat="1" ht="28.8">
       <c r="A154" s="7" t="s">
         <v>780</v>
       </c>
@@ -60370,7 +60370,7 @@
       <c r="H154" s="44"/>
       <c r="I154" s="44"/>
     </row>
-    <row r="155" spans="1:9" s="34" customFormat="1" ht="28.8">
+    <row r="155" spans="1:9" s="34" customFormat="1">
       <c r="A155" s="7" t="s">
         <v>785</v>
       </c>
@@ -60391,7 +60391,7 @@
       <c r="H155" s="44"/>
       <c r="I155" s="44"/>
     </row>
-    <row r="156" spans="1:9" s="34" customFormat="1" ht="28.8">
+    <row r="156" spans="1:9" s="34" customFormat="1">
       <c r="A156" s="7" t="s">
         <v>790</v>
       </c>
@@ -60412,7 +60412,7 @@
       <c r="H156" s="44"/>
       <c r="I156" s="44"/>
     </row>
-    <row r="157" spans="1:9" s="34" customFormat="1" ht="43.2">
+    <row r="157" spans="1:9" s="34" customFormat="1" ht="28.8">
       <c r="A157" s="7" t="s">
         <v>795</v>
       </c>
@@ -60433,7 +60433,7 @@
       <c r="H157" s="44"/>
       <c r="I157" s="44"/>
     </row>
-    <row r="158" spans="1:9" s="34" customFormat="1" ht="28.8">
+    <row r="158" spans="1:9" s="34" customFormat="1">
       <c r="A158" s="7" t="s">
         <v>800</v>
       </c>
@@ -60454,7 +60454,7 @@
       <c r="H158" s="44"/>
       <c r="I158" s="44"/>
     </row>
-    <row r="159" spans="1:9" s="34" customFormat="1" ht="28.8">
+    <row r="159" spans="1:9" s="34" customFormat="1">
       <c r="A159" s="7" t="s">
         <v>805</v>
       </c>
@@ -60475,7 +60475,7 @@
       <c r="H159" s="44"/>
       <c r="I159" s="44"/>
     </row>
-    <row r="160" spans="1:9" s="34" customFormat="1" ht="28.8">
+    <row r="160" spans="1:9" s="34" customFormat="1">
       <c r="A160" s="7" t="s">
         <v>810</v>
       </c>
@@ -60496,7 +60496,7 @@
       <c r="H160" s="44"/>
       <c r="I160" s="44"/>
     </row>
-    <row r="161" spans="1:9" s="34" customFormat="1" ht="28.8">
+    <row r="161" spans="1:9" s="34" customFormat="1">
       <c r="A161" s="7" t="s">
         <v>815</v>
       </c>
@@ -60517,7 +60517,7 @@
       <c r="H161" s="44"/>
       <c r="I161" s="44"/>
     </row>
-    <row r="162" spans="1:9" s="34" customFormat="1" ht="43.2">
+    <row r="162" spans="1:9" s="34" customFormat="1" ht="28.8">
       <c r="A162" s="7" t="s">
         <v>820</v>
       </c>
@@ -60589,7 +60589,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="166" spans="1:9" s="34" customFormat="1" ht="28.8">
+    <row r="166" spans="1:9" s="34" customFormat="1">
       <c r="A166" s="7" t="s">
         <v>840</v>
       </c>
@@ -60971,7 +60971,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="188" spans="1:9" s="34" customFormat="1" ht="28.8">
+    <row r="188" spans="1:9" s="34" customFormat="1">
       <c r="A188" s="7" t="s">
         <v>950</v>
       </c>
@@ -60992,7 +60992,7 @@
       <c r="H188" s="44"/>
       <c r="I188" s="44"/>
     </row>
-    <row r="189" spans="1:9" s="34" customFormat="1" ht="28.8">
+    <row r="189" spans="1:9" s="34" customFormat="1">
       <c r="A189" s="7" t="s">
         <v>955</v>
       </c>
@@ -61013,7 +61013,7 @@
       <c r="H189" s="44"/>
       <c r="I189" s="44"/>
     </row>
-    <row r="190" spans="1:9" s="34" customFormat="1" ht="28.8">
+    <row r="190" spans="1:9" s="34" customFormat="1">
       <c r="A190" s="7" t="s">
         <v>960</v>
       </c>
@@ -61068,7 +61068,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="193" spans="1:9" s="34" customFormat="1" ht="28.8">
+    <row r="193" spans="1:9" s="34" customFormat="1">
       <c r="A193" s="7" t="s">
         <v>975</v>
       </c>
@@ -88517,8 +88517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G990"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A301" workbookViewId="0">
-      <selection activeCell="A315" sqref="A315"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -88528,7 +88528,7 @@
     <col min="3" max="3" width="26.21875" style="2" customWidth="1"/>
     <col min="4" max="4" width="8.77734375" style="2" customWidth="1"/>
     <col min="5" max="5" width="45.44140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9" style="3"/>
+    <col min="6" max="6" width="46" style="3" customWidth="1"/>
     <col min="7" max="7" width="9" style="2"/>
   </cols>
   <sheetData>
